--- a/Web/Content/example/MemberScoreExample.xlsx
+++ b/Web/Content/example/MemberScoreExample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benson922\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benson922\Documents\irentapi20\Web\Content\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訂單編號</t>
+    <t>合約編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,18 +376,18 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
